--- a/static/template7.xlsx
+++ b/static/template7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kjgong/WorkSpace/Code/pm25image/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8011A20-AB57-584A-AA3D-411911B7EEBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5355D07-F4E2-4D4D-9431-4016A0EA5A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -842,16 +842,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="8" width="10.83203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16" customHeight="1">
@@ -956,7 +955,7 @@
         <v>73</v>
       </c>
       <c r="J4" s="4">
-        <f t="array" ref="J4">MAX(IF(DATA!A:A=IMAGE!B4,DATA!G:G))</f>
+        <f>IF(MAX(DATA!$G$2:$G$25),MAX(DATA!$G$2:$G$25),"-")</f>
         <v>97</v>
       </c>
     </row>
@@ -996,7 +995,7 @@
         <v>67</v>
       </c>
       <c r="J5" s="4">
-        <f t="array" ref="J5">MAX(IF(DATA!A:A=IMAGE!B5,DATA!G:G))</f>
+        <f>IF(MAX(DATA!$G$26:$G$49),MAX(DATA!$G$26:$G$49),"-")</f>
         <v>105</v>
       </c>
     </row>
@@ -1036,7 +1035,7 @@
         <v>89</v>
       </c>
       <c r="J6" s="4">
-        <f t="array" ref="J6">MAX(IF(DATA!A:A=IMAGE!B6,DATA!G:G))</f>
+        <f>IF(MAX(DATA!$G$50:$G$73),MAX(DATA!$G$50:$G$73),"-")</f>
         <v>124</v>
       </c>
     </row>
@@ -1076,7 +1075,7 @@
         <v>79</v>
       </c>
       <c r="J7" s="4">
-        <f t="array" ref="J7">MAX(IF(DATA!A:A=IMAGE!B7,DATA!G:G))</f>
+        <f>IF(MAX(DATA!$G$74:$G$97),MAX(DATA!$G$74:$G$97),"-")</f>
         <v>107</v>
       </c>
     </row>
@@ -1116,7 +1115,7 @@
         <v>85</v>
       </c>
       <c r="J8" s="4">
-        <f t="array" ref="J8">MAX(IF(DATA!A:A=IMAGE!B8,DATA!G:G))</f>
+        <f>IF(MAX(DATA!$G$98:$G$121),MAX(DATA!$G$98:$G$121),"-")</f>
         <v>102</v>
       </c>
     </row>
@@ -1156,7 +1155,7 @@
         <v>71</v>
       </c>
       <c r="J9" s="4">
-        <f t="array" ref="J9">MAX(IF(DATA!A:A=IMAGE!B9,DATA!G:G))</f>
+        <f>IF(MAX(DATA!$G$122:$G$145),MAX(DATA!$G$122:$G$145),"-")</f>
         <v>92</v>
       </c>
     </row>
@@ -1196,7 +1195,7 @@
         <v>68</v>
       </c>
       <c r="J10" s="4">
-        <f t="array" ref="J10">MAX(IF(DATA!A:A=IMAGE!B10,DATA!G:G))</f>
+        <f>IF(MAX(DATA!$G$146:$G$169),MAX(DATA!$G$146:$G$169),"-")</f>
         <v>107</v>
       </c>
     </row>
@@ -1236,7 +1235,7 @@
         <v>83</v>
       </c>
       <c r="J11" s="4">
-        <f t="array" ref="J11">MAX(IF(DATA!A:A=IMAGE!B11,DATA!G:G))</f>
+        <f>IF(MAX(DATA!$G$170:$G$193),MAX(DATA!$G$170:$G$193),"-")</f>
         <v>117</v>
       </c>
     </row>
@@ -1276,7 +1275,7 @@
         <v>96</v>
       </c>
       <c r="J12" s="4">
-        <f t="array" ref="J12">MAX(IF(DATA!A:A=IMAGE!B12,DATA!G:G))</f>
+        <f>IF(MAX(DATA!$G$194:$G$217),MAX(DATA!$G$194:$G$217),"-")</f>
         <v>117</v>
       </c>
     </row>
@@ -1316,7 +1315,7 @@
         <v>71</v>
       </c>
       <c r="J13" s="4">
-        <f t="array" ref="J13">MAX(IF(DATA!A:A=IMAGE!B13,DATA!G:G))</f>
+        <f>IF(MAX(DATA!$G$218:$G$241),MAX(DATA!$G$218:$G$241),"-")</f>
         <v>110</v>
       </c>
     </row>
@@ -1356,7 +1355,7 @@
         <v>79</v>
       </c>
       <c r="J14" s="4">
-        <f t="array" ref="J14">MAX(IF(DATA!A:A=IMAGE!B14,DATA!G:G))</f>
+        <f>IF(MAX(DATA!$G$242:$G$265),MAX(DATA!$G$242:$G$265),"-")</f>
         <v>93</v>
       </c>
     </row>
@@ -1396,7 +1395,7 @@
         <v>86</v>
       </c>
       <c r="J15" s="4">
-        <f t="array" ref="J15">MAX(IF(DATA!A:A=IMAGE!B15,DATA!G:G))</f>
+        <f>IF(MAX(DATA!$G$266:$G$289),MAX(DATA!$G$266:$G$289),"-")</f>
         <v>101</v>
       </c>
     </row>
@@ -1436,7 +1435,7 @@
         <v>89</v>
       </c>
       <c r="J16" s="4">
-        <f t="array" ref="J16">MAX(IF(DATA!A:A=IMAGE!B16,DATA!G:G))</f>
+        <f>IF(MAX(DATA!$G$290:$G$313),MAX(DATA!$G$290:$G$313),"-")</f>
         <v>106</v>
       </c>
     </row>
@@ -1474,7 +1473,7 @@
         <v>80</v>
       </c>
       <c r="J17" s="4">
-        <f t="array" ref="J17">MAX(IF(DATA!A:A=IMAGE!A17,DATA!G:G))</f>
+        <f>IF(MAX(DATA!$G$314:$G$337),MAX(DATA!$G$314:$G$337),"-")</f>
         <v>106</v>
       </c>
     </row>
@@ -1512,7 +1511,7 @@
         <v>53</v>
       </c>
       <c r="J18" s="4">
-        <f t="array" ref="J18">MAX(IF(DATA!A:A=IMAGE!A18,DATA!G:G))</f>
+        <f>IF(MAX(DATA!$G$338:$G$361),MAX(DATA!$G$338:$G$361),"-")</f>
         <v>76</v>
       </c>
     </row>
@@ -1550,7 +1549,7 @@
         <v>62</v>
       </c>
       <c r="J19" s="4">
-        <f t="array" ref="J19">MAX(IF(DATA!A:A=IMAGE!A19,DATA!G:G))</f>
+        <f>IF(MAX(DATA!$G$362:$G$385),MAX(DATA!$G$362:$G$385),"-")</f>
         <v>78</v>
       </c>
     </row>
@@ -1641,8 +1640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G385"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="A216" workbookViewId="0">
+      <selection activeCell="H233" sqref="H233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
